--- a/5kurs/pereverzev/is_upr_org/ISUprMatrixPPP-BI.xlsx
+++ b/5kurs/pereverzev/is_upr_org/ISUprMatrixPPP-BI.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
@@ -11,7 +11,7 @@
     <sheet name="БИ" sheetId="1" r:id="rId2"/>
     <sheet name="ИО" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1478,55 +1478,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2012,10 +1964,10 @@
   <dimension ref="A1:BX110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="BM100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="BT98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" sqref="A1:BX110"/>
+      <selection pane="bottomRight" activeCell="BQ1" sqref="BQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2534,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="BX2">
-        <f>SUM(B2:BW2)</f>
+        <f t="shared" ref="BX2:BX33" si="0">SUM(B2:BW2)</f>
         <v>1</v>
       </c>
     </row>
@@ -2765,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="BX3">
-        <f>SUM(B3:BW3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2996,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="BX4">
-        <f>SUM(B4:BW4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3227,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="BX5">
-        <f>SUM(B5:BW5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -3458,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="BX6">
-        <f>SUM(B6:BW6)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3689,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="BX7">
-        <f>SUM(B7:BW7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3920,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="BX8">
-        <f>SUM(B8:BW8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4151,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="BX9">
-        <f>SUM(B9:BW9)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -4382,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="BX10">
-        <f>SUM(B10:BW10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -4613,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="BX11">
-        <f>SUM(B11:BW11)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -4844,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="BX12">
-        <f>SUM(B12:BW12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5075,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="BX13">
-        <f>SUM(B13:BW13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5306,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="BX14">
-        <f>SUM(B14:BW14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5537,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="BX15">
-        <f>SUM(B15:BW15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5768,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="BX16">
-        <f>SUM(B16:BW16)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5999,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="BX17">
-        <f>SUM(B17:BW17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -6230,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="BX18">
-        <f>SUM(B18:BW18)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -6461,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="BX19">
-        <f>SUM(B19:BW19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -6692,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="BX20">
-        <f>SUM(B20:BW20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6923,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="BX21">
-        <f>SUM(B21:BW21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7154,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="BX22">
-        <f>SUM(B22:BW22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7385,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="BX23">
-        <f>SUM(B23:BW23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -7616,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="BX24">
-        <f>SUM(B24:BW24)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -7847,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="BX25">
-        <f>SUM(B25:BW25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8078,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="BX26">
-        <f>SUM(B26:BW26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8309,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="BX27">
-        <f>SUM(B27:BW27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -8540,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="BX28">
-        <f>SUM(B28:BW28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8771,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="BX29">
-        <f>SUM(B29:BW29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9002,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="BX30">
-        <f>SUM(B30:BW30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9233,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="BX31">
-        <f>SUM(B31:BW31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9464,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="BX32">
-        <f>SUM(B32:BW32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9695,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="BX33">
-        <f>SUM(B33:BW33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9926,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="BX34">
-        <f>SUM(B34:BW34)</f>
+        <f t="shared" ref="BX34:BX65" si="1">SUM(B34:BW34)</f>
         <v>0</v>
       </c>
     </row>
@@ -10157,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="BX35">
-        <f>SUM(B35:BW35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10388,7 +10340,7 @@
         <v>0</v>
       </c>
       <c r="BX36">
-        <f>SUM(B36:BW36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10619,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="BX37">
-        <f>SUM(B37:BW37)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -10850,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="BX38">
-        <f>SUM(B38:BW38)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -11081,7 +11033,7 @@
         <v>0</v>
       </c>
       <c r="BX39">
-        <f>SUM(B39:BW39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11312,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="BX40">
-        <f>SUM(B40:BW40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11543,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="BX41">
-        <f>SUM(B41:BW41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11774,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="BX42">
-        <f>SUM(B42:BW42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12005,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="BX43">
-        <f>SUM(B43:BW43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12236,7 +12188,7 @@
         <v>0</v>
       </c>
       <c r="BX44">
-        <f>SUM(B44:BW44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -12467,7 +12419,7 @@
         <v>0</v>
       </c>
       <c r="BX45">
-        <f>SUM(B45:BW45)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12698,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="BX46">
-        <f>SUM(B46:BW46)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12929,7 +12881,7 @@
         <v>0</v>
       </c>
       <c r="BX47">
-        <f>SUM(B47:BW47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -13160,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="BX48">
-        <f>SUM(B48:BW48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -13391,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="BX49">
-        <f>SUM(B49:BW49)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -13622,7 +13574,7 @@
         <v>0</v>
       </c>
       <c r="BX50">
-        <f>SUM(B50:BW50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13853,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="BX51">
-        <f>SUM(B51:BW51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -14084,7 +14036,7 @@
         <v>0</v>
       </c>
       <c r="BX52">
-        <f>SUM(B52:BW52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -14315,7 +14267,7 @@
         <v>0</v>
       </c>
       <c r="BX53">
-        <f>SUM(B53:BW53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -14546,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="BX54">
-        <f>SUM(B54:BW54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -14777,7 +14729,7 @@
         <v>0</v>
       </c>
       <c r="BX55">
-        <f>SUM(B55:BW55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -15008,7 +14960,7 @@
         <v>0</v>
       </c>
       <c r="BX56">
-        <f>SUM(B56:BW56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -15239,7 +15191,7 @@
         <v>0</v>
       </c>
       <c r="BX57">
-        <f>SUM(B57:BW57)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -15470,7 +15422,7 @@
         <v>0</v>
       </c>
       <c r="BX58">
-        <f>SUM(B58:BW58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15701,7 +15653,7 @@
         <v>0</v>
       </c>
       <c r="BX59">
-        <f>SUM(B59:BW59)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15932,7 +15884,7 @@
         <v>0</v>
       </c>
       <c r="BX60">
-        <f>SUM(B60:BW60)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16163,7 +16115,7 @@
         <v>0</v>
       </c>
       <c r="BX61">
-        <f>SUM(B61:BW61)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16394,7 +16346,7 @@
         <v>0</v>
       </c>
       <c r="BX62">
-        <f>SUM(B62:BW62)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -16625,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="BX63">
-        <f>SUM(B63:BW63)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16856,7 +16808,7 @@
         <v>0</v>
       </c>
       <c r="BX64">
-        <f>SUM(B64:BW64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17087,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="BX65">
-        <f>SUM(B65:BW65)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17318,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="BX66">
-        <f>SUM(B66:BW66)</f>
+        <f t="shared" ref="BX66:BX97" si="2">SUM(B66:BW66)</f>
         <v>0</v>
       </c>
     </row>
@@ -17549,7 +17501,7 @@
         <v>0</v>
       </c>
       <c r="BX67">
-        <f>SUM(B67:BW67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -17780,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="BX68">
-        <f>SUM(B68:BW68)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -18011,7 +17963,7 @@
         <v>0</v>
       </c>
       <c r="BX69">
-        <f>SUM(B69:BW69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18242,7 +18194,7 @@
         <v>0</v>
       </c>
       <c r="BX70">
-        <f>SUM(B70:BW70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18473,7 +18425,7 @@
         <v>0</v>
       </c>
       <c r="BX71">
-        <f>SUM(B71:BW71)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18704,7 +18656,7 @@
         <v>0</v>
       </c>
       <c r="BX72">
-        <f>SUM(B72:BW72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18935,7 +18887,7 @@
         <v>0</v>
       </c>
       <c r="BX73">
-        <f>SUM(B73:BW73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19166,7 +19118,7 @@
         <v>0</v>
       </c>
       <c r="BX74">
-        <f>SUM(B74:BW74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19397,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="BX75">
-        <f>SUM(B75:BW75)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -19628,7 +19580,7 @@
         <v>0</v>
       </c>
       <c r="BX76">
-        <f>SUM(B76:BW76)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19859,7 +19811,7 @@
         <v>0</v>
       </c>
       <c r="BX77">
-        <f>SUM(B77:BW77)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20090,7 +20042,7 @@
         <v>0</v>
       </c>
       <c r="BX78">
-        <f>SUM(B78:BW78)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20321,7 +20273,7 @@
         <v>0</v>
       </c>
       <c r="BX79">
-        <f>SUM(B79:BW79)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20552,7 +20504,7 @@
         <v>0</v>
       </c>
       <c r="BX80">
-        <f>SUM(B80:BW80)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -20783,7 +20735,7 @@
         <v>0</v>
       </c>
       <c r="BX81">
-        <f>SUM(B81:BW81)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21014,7 +20966,7 @@
         <v>0</v>
       </c>
       <c r="BX82">
-        <f>SUM(B82:BW82)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21245,7 +21197,7 @@
         <v>0</v>
       </c>
       <c r="BX83">
-        <f>SUM(B83:BW83)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21476,7 +21428,7 @@
         <v>0</v>
       </c>
       <c r="BX84">
-        <f>SUM(B84:BW84)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21707,7 +21659,7 @@
         <v>0</v>
       </c>
       <c r="BX85">
-        <f>SUM(B85:BW85)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -21938,7 +21890,7 @@
         <v>0</v>
       </c>
       <c r="BX86">
-        <f>SUM(B86:BW86)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22169,7 +22121,7 @@
         <v>0</v>
       </c>
       <c r="BX87">
-        <f>SUM(B87:BW87)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22400,7 +22352,7 @@
         <v>0</v>
       </c>
       <c r="BX88">
-        <f>SUM(B88:BW88)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22631,7 +22583,7 @@
         <v>0</v>
       </c>
       <c r="BX89">
-        <f>SUM(B89:BW89)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22862,7 +22814,7 @@
         <v>0</v>
       </c>
       <c r="BX90">
-        <f>SUM(B90:BW90)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23093,7 +23045,7 @@
         <v>0</v>
       </c>
       <c r="BX91">
-        <f>SUM(B91:BW91)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23324,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="BX92">
-        <f>SUM(B92:BW92)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -23555,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="BX93">
-        <f>SUM(B93:BW93)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23786,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="BX94">
-        <f>SUM(B94:BW94)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24017,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="BX95">
-        <f>SUM(B95:BW95)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24248,7 +24200,7 @@
         <v>0</v>
       </c>
       <c r="BX96">
-        <f>SUM(B96:BW96)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -24479,7 +24431,7 @@
         <v>0</v>
       </c>
       <c r="BX97">
-        <f>SUM(B97:BW97)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24710,7 +24662,7 @@
         <v>0</v>
       </c>
       <c r="BX98">
-        <f>SUM(B98:BW98)</f>
+        <f t="shared" ref="BX98:BX129" si="3">SUM(B98:BW98)</f>
         <v>1</v>
       </c>
     </row>
@@ -24941,7 +24893,7 @@
         <v>0</v>
       </c>
       <c r="BX99">
-        <f>SUM(B99:BW99)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -25172,7 +25124,7 @@
         <v>0</v>
       </c>
       <c r="BX100">
-        <f>SUM(B100:BW100)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25403,7 +25355,7 @@
         <v>0</v>
       </c>
       <c r="BX101">
-        <f>SUM(B101:BW101)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25634,7 +25586,7 @@
         <v>0</v>
       </c>
       <c r="BX102">
-        <f>SUM(B102:BW102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25865,7 +25817,7 @@
         <v>0</v>
       </c>
       <c r="BX103">
-        <f>SUM(B103:BW103)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -26096,7 +26048,7 @@
         <v>0</v>
       </c>
       <c r="BX104">
-        <f>SUM(B104:BW104)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -26327,7 +26279,7 @@
         <v>1</v>
       </c>
       <c r="BX105">
-        <f>SUM(B105:BW105)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -26558,7 +26510,7 @@
         <v>0</v>
       </c>
       <c r="BX106">
-        <f>SUM(B106:BW106)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -26789,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="BX107">
-        <f>SUM(B107:BW107)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -27020,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="BX108">
-        <f>SUM(B108:BW108)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -27251,7 +27203,7 @@
         <v>0</v>
       </c>
       <c r="BX109">
-        <f>SUM(B109:BW109)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -27260,299 +27212,299 @@
         <v>75</v>
       </c>
       <c r="B110">
-        <f>SUM(B2:B109)</f>
+        <f t="shared" ref="B110:AG110" si="4">SUM(B2:B109)</f>
         <v>1</v>
       </c>
       <c r="C110">
-        <f>SUM(C2:C109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D110">
-        <f>SUM(D2:D109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E110">
-        <f>SUM(E2:E109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F110">
-        <f>SUM(F2:F109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G110">
-        <f>SUM(G2:G109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H110">
-        <f>SUM(H2:H109)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I110">
-        <f>SUM(I2:I109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J110">
-        <f>SUM(J2:J109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K110">
-        <f>SUM(K2:K109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L110">
-        <f>SUM(L2:L109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M110">
-        <f>SUM(M2:M109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N110">
-        <f>SUM(N2:N109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O110">
-        <f>SUM(O2:O109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P110">
-        <f>SUM(P2:P109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q110">
-        <f>SUM(Q2:Q109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R110">
-        <f>SUM(R2:R109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S110">
-        <f>SUM(S2:S109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T110">
-        <f>SUM(T2:T109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U110">
-        <f>SUM(U2:U109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V110">
-        <f>SUM(V2:V109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W110">
-        <f>SUM(W2:W109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X110">
-        <f>SUM(X2:X109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y110">
-        <f>SUM(Y2:Y109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Z110">
-        <f>SUM(Z2:Z109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AA110">
-        <f>SUM(AA2:AA109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AB110">
-        <f>SUM(AB2:AB109)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC110">
-        <f>SUM(AC2:AC109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD110">
-        <f>SUM(AD2:AD109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AE110">
-        <f>SUM(AE2:AE109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF110">
-        <f>SUM(AF2:AF109)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG110">
-        <f>SUM(AG2:AG109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AH110">
-        <f>SUM(AH2:AH109)</f>
+        <f t="shared" ref="AH110:BM110" si="5">SUM(AH2:AH109)</f>
         <v>1</v>
       </c>
       <c r="AI110">
-        <f>SUM(AI2:AI109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AJ110">
-        <f>SUM(AJ2:AJ109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AK110">
-        <f>SUM(AK2:AK109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AL110">
-        <f>SUM(AL2:AL109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AM110">
-        <f>SUM(AM2:AM109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN110">
-        <f>SUM(AN2:AN109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO110">
-        <f>SUM(AO2:AO109)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP110">
-        <f>SUM(AP2:AP109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AQ110">
-        <f>SUM(AQ2:AQ109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AR110">
-        <f>SUM(AR2:AR109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AS110">
-        <f>SUM(AS2:AS109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AT110">
-        <f>SUM(AT2:AT109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AU110">
-        <f>SUM(AU2:AU109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AV110">
-        <f>SUM(AV2:AV109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AW110">
-        <f>SUM(AW2:AW109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AX110">
-        <f>SUM(AX2:AX109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AY110">
-        <f>SUM(AY2:AY109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AZ110">
-        <f>SUM(AZ2:AZ109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BA110">
-        <f>SUM(BA2:BA109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BB110">
-        <f>SUM(BB2:BB109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BC110">
-        <f>SUM(BC2:BC109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BD110">
-        <f>SUM(BD2:BD109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BE110">
-        <f>SUM(BE2:BE109)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BF110">
-        <f>SUM(BF2:BF109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BG110">
-        <f>SUM(BG2:BG109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BH110">
-        <f>SUM(BH2:BH109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BI110">
-        <f>SUM(BI2:BI109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BJ110">
-        <f>SUM(BJ2:BJ109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BK110">
-        <f>SUM(BK2:BK109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BL110">
-        <f>SUM(BL2:BL109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BM110">
-        <f>SUM(BM2:BM109)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BN110">
-        <f>SUM(BN2:BN109)</f>
+        <f t="shared" ref="BN110:CS110" si="6">SUM(BN2:BN109)</f>
         <v>1</v>
       </c>
       <c r="BO110">
-        <f>SUM(BO2:BO109)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BP110">
-        <f>SUM(BP2:BP109)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BQ110">
-        <f>SUM(BQ2:BQ109)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BR110">
-        <f>SUM(BR2:BR109)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BS110">
-        <f>SUM(BS2:BS109)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BT110">
-        <f>SUM(BT2:BT109)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BU110">
-        <f>SUM(BU2:BU109)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BV110">
-        <f>SUM(BV2:BV109)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BW110">
-        <f>SUM(BW2:BW109)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -27582,9 +27534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX29"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="BO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:BX29"/>
+      <selection pane="topRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34389,7 +34341,7 @@
         <v>3</v>
       </c>
       <c r="BN29">
-        <f t="shared" ref="BN29:CS29" si="3">SUM(BN2:BN28)</f>
+        <f t="shared" ref="BN29:BW29" si="3">SUM(BN2:BN28)</f>
         <v>1</v>
       </c>
       <c r="BO29">
@@ -34431,18 +34383,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BX2:BX28">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:BW29">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34455,8 +34407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34580,6 +34532,7 @@
         <v>103</v>
       </c>
       <c r="B2" s="1">
+        <f t="array" ref="B2:AB109">MMULT(БО!B2:BW109,B117:AB190)</f>
         <v>0</v>
       </c>
       <c r="C2" s="1">
@@ -34661,7 +34614,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <f>SUM(B2:AB2)</f>
+        <f t="shared" ref="AC2:AC33" si="0">SUM(B2:AB2)</f>
         <v>0</v>
       </c>
     </row>
@@ -34751,7 +34704,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <f>SUM(B3:AB3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34772,7 +34725,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -34841,8 +34794,8 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <f>SUM(B4:AB4)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="18.75">
@@ -34928,11 +34881,11 @@
         <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <f>SUM(B5:AB5)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="18.75">
@@ -35000,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="1">
         <v>0</v>
@@ -35021,8 +34974,8 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <f>SUM(B6:AB6)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="18.75">
@@ -35111,7 +35064,7 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>SUM(B7:AB7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35201,7 +35154,7 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <f>SUM(B8:AB8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35234,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -35291,8 +35244,8 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <f>SUM(B9:AB9)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="18.75">
@@ -35381,7 +35334,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <f>SUM(B10:AB10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35471,7 +35424,7 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <f>SUM(B11:AB11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35561,7 +35514,7 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <f>SUM(B12:AB12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35582,7 +35535,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -35624,7 +35577,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="1">
         <v>0</v>
@@ -35633,7 +35586,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="1">
         <v>0</v>
@@ -35651,8 +35604,8 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <f>SUM(B13:AB13)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="18.75">
@@ -35741,7 +35694,7 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <f>SUM(B14:AB14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35831,7 +35784,7 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <f>SUM(B15:AB15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35921,7 +35874,7 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <f>SUM(B16:AB16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -36011,7 +35964,7 @@
         <v>0</v>
       </c>
       <c r="AC17">
-        <f>SUM(B17:AB17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -36044,7 +35997,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -36101,8 +36054,8 @@
         <v>0</v>
       </c>
       <c r="AC18">
-        <f>SUM(B18:AB18)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="18.75">
@@ -36149,7 +36102,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="1">
         <v>0</v>
@@ -36191,8 +36144,8 @@
         <v>0</v>
       </c>
       <c r="AC19">
-        <f>SUM(B19:AB19)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="18.75">
@@ -36281,7 +36234,7 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <f>SUM(B20:AB20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -36371,7 +36324,7 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <f>SUM(B21:AB21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -36461,7 +36414,7 @@
         <v>0</v>
       </c>
       <c r="AC22">
-        <f>SUM(B22:AB22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -36551,7 +36504,7 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <f>SUM(B23:AB23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -36641,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="AC24">
-        <f>SUM(B24:AB24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -36731,7 +36684,7 @@
         <v>0</v>
       </c>
       <c r="AC25">
-        <f>SUM(B25:AB25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -36821,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="AC26">
-        <f>SUM(B26:AB26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -36884,7 +36837,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -36911,8 +36864,8 @@
         <v>0</v>
       </c>
       <c r="AC27">
-        <f>SUM(B27:AB27)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="18.75">
@@ -37001,7 +36954,7 @@
         <v>0</v>
       </c>
       <c r="AC28">
-        <f>SUM(B28:AB28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -37091,7 +37044,7 @@
         <v>0</v>
       </c>
       <c r="AC29">
-        <f>SUM(B29:AB29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -37181,7 +37134,7 @@
         <v>0</v>
       </c>
       <c r="AC30">
-        <f>SUM(B30:AB30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -37271,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="AC31">
-        <f>SUM(B31:AB31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -37361,7 +37314,7 @@
         <v>0</v>
       </c>
       <c r="AC32">
-        <f>SUM(B32:AB32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -37451,7 +37404,7 @@
         <v>0</v>
       </c>
       <c r="AC33">
-        <f>SUM(B33:AB33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -37541,7 +37494,7 @@
         <v>0</v>
       </c>
       <c r="AC34">
-        <f>SUM(B34:AB34)</f>
+        <f t="shared" ref="AC34:AC65" si="1">SUM(B34:AB34)</f>
         <v>0</v>
       </c>
     </row>
@@ -37631,7 +37584,7 @@
         <v>0</v>
       </c>
       <c r="AC35">
-        <f>SUM(B35:AB35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -37721,7 +37674,7 @@
         <v>0</v>
       </c>
       <c r="AC36">
-        <f>SUM(B36:AB36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -37784,13 +37737,13 @@
         <v>0</v>
       </c>
       <c r="T37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="1">
         <v>0</v>
       </c>
       <c r="V37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="1">
         <v>0</v>
@@ -37799,7 +37752,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37" s="1">
         <v>0</v>
@@ -37811,8 +37764,8 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <f>SUM(B37:AB37)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="18.75">
@@ -37877,7 +37830,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="1">
         <v>0</v>
@@ -37901,8 +37854,8 @@
         <v>0</v>
       </c>
       <c r="AC38">
-        <f>SUM(B38:AB38)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="18.75">
@@ -37991,7 +37944,7 @@
         <v>0</v>
       </c>
       <c r="AC39">
-        <f>SUM(B39:AB39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -38081,7 +38034,7 @@
         <v>0</v>
       </c>
       <c r="AC40">
-        <f>SUM(B40:AB40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -38171,7 +38124,7 @@
         <v>0</v>
       </c>
       <c r="AC41">
-        <f>SUM(B41:AB41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -38261,7 +38214,7 @@
         <v>0</v>
       </c>
       <c r="AC42">
-        <f>SUM(B42:AB42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -38351,7 +38304,7 @@
         <v>0</v>
       </c>
       <c r="AC43">
-        <f>SUM(B43:AB43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -38441,7 +38394,7 @@
         <v>0</v>
       </c>
       <c r="AC44">
-        <f>SUM(B44:AB44)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -38531,7 +38484,7 @@
         <v>0</v>
       </c>
       <c r="AC45">
-        <f>SUM(B45:AB45)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -38621,7 +38574,7 @@
         <v>0</v>
       </c>
       <c r="AC46">
-        <f>SUM(B46:AB46)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -38711,7 +38664,7 @@
         <v>0</v>
       </c>
       <c r="AC47">
-        <f>SUM(B47:AB47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -38801,7 +38754,7 @@
         <v>0</v>
       </c>
       <c r="AC48">
-        <f>SUM(B48:AB48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -38864,10 +38817,10 @@
         <v>0</v>
       </c>
       <c r="T49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="1">
         <v>0</v>
@@ -38891,8 +38844,8 @@
         <v>0</v>
       </c>
       <c r="AC49">
-        <f>SUM(B49:AB49)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="18.75">
@@ -38954,7 +38907,7 @@
         <v>0</v>
       </c>
       <c r="T50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="1">
         <v>0</v>
@@ -38981,8 +38934,8 @@
         <v>0</v>
       </c>
       <c r="AC50">
-        <f>SUM(B50:AB50)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="18.75">
@@ -39071,7 +39024,7 @@
         <v>0</v>
       </c>
       <c r="AC51">
-        <f>SUM(B51:AB51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -39161,7 +39114,7 @@
         <v>0</v>
       </c>
       <c r="AC52">
-        <f>SUM(B52:AB52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -39251,7 +39204,7 @@
         <v>0</v>
       </c>
       <c r="AC53">
-        <f>SUM(B53:AB53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -39341,7 +39294,7 @@
         <v>0</v>
       </c>
       <c r="AC54">
-        <f>SUM(B54:AB54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -39431,7 +39384,7 @@
         <v>0</v>
       </c>
       <c r="AC55">
-        <f>SUM(B55:AB55)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -39521,7 +39474,7 @@
         <v>0</v>
       </c>
       <c r="AC56">
-        <f>SUM(B56:AB56)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -39605,14 +39558,14 @@
         <v>0</v>
       </c>
       <c r="AA57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB57" s="1">
         <v>0</v>
       </c>
       <c r="AC57">
-        <f>SUM(B57:AB57)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="18.75">
@@ -39701,7 +39654,7 @@
         <v>0</v>
       </c>
       <c r="AC58">
-        <f>SUM(B58:AB58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -39791,7 +39744,7 @@
         <v>0</v>
       </c>
       <c r="AC59">
-        <f>SUM(B59:AB59)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -39881,7 +39834,7 @@
         <v>0</v>
       </c>
       <c r="AC60">
-        <f>SUM(B60:AB60)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -39971,7 +39924,7 @@
         <v>0</v>
       </c>
       <c r="AC61">
-        <f>SUM(B61:AB61)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40016,10 +39969,10 @@
         <v>0</v>
       </c>
       <c r="N62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="1">
         <v>0</v>
@@ -40034,7 +39987,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" s="1">
         <v>0</v>
@@ -40061,8 +40014,8 @@
         <v>0</v>
       </c>
       <c r="AC62">
-        <f>SUM(B62:AB62)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="18.75">
@@ -40151,7 +40104,7 @@
         <v>0</v>
       </c>
       <c r="AC63">
-        <f>SUM(B63:AB63)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40241,7 +40194,7 @@
         <v>0</v>
       </c>
       <c r="AC64">
-        <f>SUM(B64:AB64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40331,7 +40284,7 @@
         <v>0</v>
       </c>
       <c r="AC65">
-        <f>SUM(B65:AB65)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -40421,7 +40374,7 @@
         <v>0</v>
       </c>
       <c r="AC66">
-        <f>SUM(B66:AB66)</f>
+        <f t="shared" ref="AC66:AC97" si="2">SUM(B66:AB66)</f>
         <v>0</v>
       </c>
     </row>
@@ -40469,7 +40422,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" s="1">
         <v>0</v>
@@ -40511,8 +40464,8 @@
         <v>0</v>
       </c>
       <c r="AC67">
-        <f>SUM(B67:AB67)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="18.75">
@@ -40544,7 +40497,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="1">
         <v>0</v>
@@ -40598,11 +40551,11 @@
         <v>0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC68">
-        <f>SUM(B68:AB68)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="18.75">
@@ -40691,7 +40644,7 @@
         <v>0</v>
       </c>
       <c r="AC69">
-        <f>SUM(B69:AB69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -40781,7 +40734,7 @@
         <v>0</v>
       </c>
       <c r="AC70">
-        <f>SUM(B70:AB70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -40871,7 +40824,7 @@
         <v>0</v>
       </c>
       <c r="AC71">
-        <f>SUM(B71:AB71)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -40961,7 +40914,7 @@
         <v>0</v>
       </c>
       <c r="AC72">
-        <f>SUM(B72:AB72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -41051,7 +41004,7 @@
         <v>0</v>
       </c>
       <c r="AC73">
-        <f>SUM(B73:AB73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -41141,7 +41094,7 @@
         <v>0</v>
       </c>
       <c r="AC74">
-        <f>SUM(B74:AB74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -41231,7 +41184,7 @@
         <v>0</v>
       </c>
       <c r="AC75">
-        <f>SUM(B75:AB75)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -41321,7 +41274,7 @@
         <v>0</v>
       </c>
       <c r="AC76">
-        <f>SUM(B76:AB76)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -41411,7 +41364,7 @@
         <v>0</v>
       </c>
       <c r="AC77">
-        <f>SUM(B77:AB77)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -41501,7 +41454,7 @@
         <v>0</v>
       </c>
       <c r="AC78">
-        <f>SUM(B78:AB78)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -41591,7 +41544,7 @@
         <v>0</v>
       </c>
       <c r="AC79">
-        <f>SUM(B79:AB79)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -41600,7 +41553,7 @@
         <v>181</v>
       </c>
       <c r="B80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -41672,7 +41625,7 @@
         <v>0</v>
       </c>
       <c r="Z80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA80" s="1">
         <v>0</v>
@@ -41681,8 +41634,8 @@
         <v>0</v>
       </c>
       <c r="AC80">
-        <f>SUM(B80:AB80)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:29" ht="18.75">
@@ -41771,7 +41724,7 @@
         <v>0</v>
       </c>
       <c r="AC81">
-        <f>SUM(B81:AB81)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -41861,7 +41814,7 @@
         <v>0</v>
       </c>
       <c r="AC82">
-        <f>SUM(B82:AB82)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -41951,7 +41904,7 @@
         <v>0</v>
       </c>
       <c r="AC83">
-        <f>SUM(B83:AB83)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -42041,7 +41994,7 @@
         <v>0</v>
       </c>
       <c r="AC84">
-        <f>SUM(B84:AB84)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -42056,7 +42009,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="1">
         <v>0</v>
@@ -42131,8 +42084,8 @@
         <v>0</v>
       </c>
       <c r="AC85">
-        <f>SUM(B85:AB85)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:29" ht="18.75">
@@ -42221,7 +42174,7 @@
         <v>0</v>
       </c>
       <c r="AC86">
-        <f>SUM(B86:AB86)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -42311,7 +42264,7 @@
         <v>0</v>
       </c>
       <c r="AC87">
-        <f>SUM(B87:AB87)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -42401,7 +42354,7 @@
         <v>0</v>
       </c>
       <c r="AC88">
-        <f>SUM(B88:AB88)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -42491,7 +42444,7 @@
         <v>0</v>
       </c>
       <c r="AC89">
-        <f>SUM(B89:AB89)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -42581,7 +42534,7 @@
         <v>0</v>
       </c>
       <c r="AC90">
-        <f>SUM(B90:AB90)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -42671,7 +42624,7 @@
         <v>0</v>
       </c>
       <c r="AC91">
-        <f>SUM(B91:AB91)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -42752,7 +42705,7 @@
         <v>0</v>
       </c>
       <c r="Z92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA92" s="1">
         <v>0</v>
@@ -42761,8 +42714,8 @@
         <v>0</v>
       </c>
       <c r="AC92">
-        <f>SUM(B92:AB92)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:29" ht="18.75">
@@ -42851,7 +42804,7 @@
         <v>0</v>
       </c>
       <c r="AC93">
-        <f>SUM(B93:AB93)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -42941,7 +42894,7 @@
         <v>0</v>
       </c>
       <c r="AC94">
-        <f>SUM(B94:AB94)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -43031,7 +42984,7 @@
         <v>0</v>
       </c>
       <c r="AC95">
-        <f>SUM(B95:AB95)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -43046,7 +42999,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -43121,8 +43074,8 @@
         <v>0</v>
       </c>
       <c r="AC96">
-        <f>SUM(B96:AB96)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:29" ht="18.75">
@@ -43211,7 +43164,7 @@
         <v>0</v>
       </c>
       <c r="AC97">
-        <f>SUM(B97:AB97)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -43301,7 +43254,7 @@
         <v>0</v>
       </c>
       <c r="AC98">
-        <f>SUM(B98:AB98)</f>
+        <f t="shared" ref="AC98:AC129" si="3">SUM(B98:AB98)</f>
         <v>0</v>
       </c>
     </row>
@@ -43349,7 +43302,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P99" s="1">
         <v>0</v>
@@ -43391,8 +43344,8 @@
         <v>0</v>
       </c>
       <c r="AC99">
-        <f>SUM(B99:AB99)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:29" ht="18.75">
@@ -43481,7 +43434,7 @@
         <v>0</v>
       </c>
       <c r="AC100">
-        <f>SUM(B100:AB100)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -43571,7 +43524,7 @@
         <v>0</v>
       </c>
       <c r="AC101">
-        <f>SUM(B101:AB101)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -43661,7 +43614,7 @@
         <v>0</v>
       </c>
       <c r="AC102">
-        <f>SUM(B102:AB102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -43751,7 +43704,7 @@
         <v>0</v>
       </c>
       <c r="AC103">
-        <f>SUM(B103:AB103)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -43841,7 +43794,7 @@
         <v>0</v>
       </c>
       <c r="AC104">
-        <f>SUM(B104:AB104)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -43931,7 +43884,7 @@
         <v>0</v>
       </c>
       <c r="AC105">
-        <f>SUM(B105:AB105)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -44021,7 +43974,7 @@
         <v>0</v>
       </c>
       <c r="AC106">
-        <f>SUM(B106:AB106)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -44111,7 +44064,7 @@
         <v>0</v>
       </c>
       <c r="AC107">
-        <f>SUM(B107:AB107)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -44198,11 +44151,11 @@
         <v>0</v>
       </c>
       <c r="AB108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC108">
-        <f>SUM(B108:AB108)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:29" ht="19.5" thickBot="1">
@@ -44291,7 +44244,7 @@
         <v>0</v>
       </c>
       <c r="AC109">
-        <f>SUM(B109:AB109)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -44300,198 +44253,198 @@
         <v>75</v>
       </c>
       <c r="B110">
-        <f>SUM(B2:B109)</f>
-        <v>0</v>
+        <f t="shared" ref="B110:AB110" si="4">SUM(B2:B109)</f>
+        <v>1</v>
       </c>
       <c r="C110">
-        <f>SUM(C2:C109)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D110">
-        <f>SUM(D2:D109)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E110">
-        <f>SUM(E2:E109)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F110">
-        <f>SUM(F2:F109)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="G110">
-        <f>SUM(G2:G109)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H110">
-        <f>SUM(H2:H109)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I110">
-        <f>SUM(I2:I109)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J110">
-        <f>SUM(J2:J109)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="K110">
-        <f>SUM(K2:K109)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="L110">
-        <f>SUM(L2:L109)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M110">
-        <f>SUM(M2:M109)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N110">
-        <f>SUM(N2:N109)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="O110">
-        <f>SUM(O2:O109)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="P110">
-        <f>SUM(P2:P109)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q110">
-        <f>SUM(Q2:Q109)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R110">
-        <f>SUM(R2:R109)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S110">
-        <f>SUM(S2:S109)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T110">
-        <f>SUM(T2:T109)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="U110">
-        <f>SUM(U2:U109)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="V110">
-        <f>SUM(V2:V109)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="W110">
-        <f>SUM(W2:W109)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="X110">
-        <f>SUM(X2:X109)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y110">
-        <f>SUM(Y2:Y109)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Z110">
-        <f>SUM(Z2:Z109)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="AA110">
-        <f>SUM(AA2:AA109)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AB110">
-        <f>SUM(AB2:AB109)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:29" ht="15.75" thickBot="1"/>
-    <row r="116" spans="1:29" ht="177" thickBot="1">
+    <row r="116" spans="1:29" ht="175.5" thickBot="1">
       <c r="A116" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G116" s="4" t="s">
+      <c r="G116" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H116" s="4" t="s">
+      <c r="H116" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I116" s="4" t="s">
+      <c r="I116" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J116" s="4" t="s">
+      <c r="J116" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="K116" s="4" t="s">
+      <c r="K116" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="L116" s="4" t="s">
+      <c r="L116" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="M116" s="4" t="s">
+      <c r="M116" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="N116" s="4" t="s">
+      <c r="N116" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="O116" s="4" t="s">
+      <c r="O116" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="P116" s="4" t="s">
+      <c r="P116" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="Q116" s="4" t="s">
+      <c r="Q116" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="R116" s="4" t="s">
+      <c r="R116" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="S116" s="4" t="s">
+      <c r="S116" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="T116" s="4" t="s">
+      <c r="T116" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="U116" s="4" t="s">
+      <c r="U116" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="V116" s="4" t="s">
+      <c r="V116" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="W116" s="4" t="s">
+      <c r="W116" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="X116" s="4" t="s">
+      <c r="X116" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="Y116" s="4" t="s">
+      <c r="Y116" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="Z116" s="4" t="s">
+      <c r="Z116" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="AA116" s="4" t="s">
+      <c r="AA116" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AB116" s="4" t="s">
+      <c r="AB116" s="12" t="s">
         <v>102</v>
       </c>
       <c r="AC116" s="3" t="s">
@@ -44584,7 +44537,7 @@
         <v>0</v>
       </c>
       <c r="AC117">
-        <f>SUM(B117:AB117)</f>
+        <f t="shared" ref="AC117:AC148" si="5">SUM(B117:AB117)</f>
         <v>0</v>
       </c>
     </row>
@@ -44674,7 +44627,7 @@
         <v>0</v>
       </c>
       <c r="AC118">
-        <f>SUM(B118:AB118)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -44764,7 +44717,7 @@
         <v>0</v>
       </c>
       <c r="AC119">
-        <f>SUM(B119:AB119)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -44854,7 +44807,7 @@
         <v>0</v>
       </c>
       <c r="AC120">
-        <f>SUM(B120:AB120)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -44944,7 +44897,7 @@
         <v>0</v>
       </c>
       <c r="AC121">
-        <f>SUM(B121:AB121)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -45034,7 +44987,7 @@
         <v>0</v>
       </c>
       <c r="AC122">
-        <f>SUM(B122:AB122)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -45124,7 +45077,7 @@
         <v>0</v>
       </c>
       <c r="AC123">
-        <f>SUM(B123:AB123)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -45214,7 +45167,7 @@
         <v>0</v>
       </c>
       <c r="AC124">
-        <f>SUM(B124:AB124)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -45304,7 +45257,7 @@
         <v>0</v>
       </c>
       <c r="AC125">
-        <f>SUM(B125:AB125)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -45394,7 +45347,7 @@
         <v>0</v>
       </c>
       <c r="AC126">
-        <f>SUM(B126:AB126)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -45484,7 +45437,7 @@
         <v>0</v>
       </c>
       <c r="AC127">
-        <f>SUM(B127:AB127)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -45574,7 +45527,7 @@
         <v>0</v>
       </c>
       <c r="AC128">
-        <f>SUM(B128:AB128)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -45664,7 +45617,7 @@
         <v>0</v>
       </c>
       <c r="AC129">
-        <f>SUM(B129:AB129)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -45754,7 +45707,7 @@
         <v>0</v>
       </c>
       <c r="AC130">
-        <f>SUM(B130:AB130)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -45844,7 +45797,7 @@
         <v>0</v>
       </c>
       <c r="AC131">
-        <f>SUM(B131:AB131)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -45934,7 +45887,7 @@
         <v>0</v>
       </c>
       <c r="AC132">
-        <f>SUM(B132:AB132)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -46024,7 +45977,7 @@
         <v>0</v>
       </c>
       <c r="AC133">
-        <f>SUM(B133:AB133)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -46114,7 +46067,7 @@
         <v>0</v>
       </c>
       <c r="AC134">
-        <f>SUM(B134:AB134)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -46204,7 +46157,7 @@
         <v>0</v>
       </c>
       <c r="AC135">
-        <f>SUM(B135:AB135)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -46294,7 +46247,7 @@
         <v>0</v>
       </c>
       <c r="AC136">
-        <f>SUM(B136:AB136)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -46384,7 +46337,7 @@
         <v>0</v>
       </c>
       <c r="AC137">
-        <f>SUM(B137:AB137)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -46474,7 +46427,7 @@
         <v>0</v>
       </c>
       <c r="AC138">
-        <f>SUM(B138:AB138)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -46564,7 +46517,7 @@
         <v>0</v>
       </c>
       <c r="AC139">
-        <f>SUM(B139:AB139)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -46654,7 +46607,7 @@
         <v>0</v>
       </c>
       <c r="AC140">
-        <f>SUM(B140:AB140)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -46744,7 +46697,7 @@
         <v>0</v>
       </c>
       <c r="AC141">
-        <f>SUM(B141:AB141)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -46834,7 +46787,7 @@
         <v>0</v>
       </c>
       <c r="AC142">
-        <f>SUM(B142:AB142)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -46924,7 +46877,7 @@
         <v>0</v>
       </c>
       <c r="AC143">
-        <f>SUM(B143:AB143)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -47014,7 +46967,7 @@
         <v>0</v>
       </c>
       <c r="AC144">
-        <f>SUM(B144:AB144)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -47104,7 +47057,7 @@
         <v>0</v>
       </c>
       <c r="AC145">
-        <f>SUM(B145:AB145)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -47194,7 +47147,7 @@
         <v>0</v>
       </c>
       <c r="AC146">
-        <f>SUM(B146:AB146)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -47284,7 +47237,7 @@
         <v>0</v>
       </c>
       <c r="AC147">
-        <f>SUM(B147:AB147)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -47374,7 +47327,7 @@
         <v>0</v>
       </c>
       <c r="AC148">
-        <f>SUM(B148:AB148)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -47464,7 +47417,7 @@
         <v>0</v>
       </c>
       <c r="AC149">
-        <f>SUM(B149:AB149)</f>
+        <f t="shared" ref="AC149:AC180" si="6">SUM(B149:AB149)</f>
         <v>1</v>
       </c>
     </row>
@@ -47554,7 +47507,7 @@
         <v>0</v>
       </c>
       <c r="AC150">
-        <f>SUM(B150:AB150)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -47644,7 +47597,7 @@
         <v>0</v>
       </c>
       <c r="AC151">
-        <f>SUM(B151:AB151)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -47734,7 +47687,7 @@
         <v>0</v>
       </c>
       <c r="AC152">
-        <f>SUM(B152:AB152)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -47824,7 +47777,7 @@
         <v>0</v>
       </c>
       <c r="AC153">
-        <f>SUM(B153:AB153)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -47914,7 +47867,7 @@
         <v>0</v>
       </c>
       <c r="AC154">
-        <f>SUM(B154:AB154)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -48004,7 +47957,7 @@
         <v>0</v>
       </c>
       <c r="AC155">
-        <f>SUM(B155:AB155)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -48094,7 +48047,7 @@
         <v>0</v>
       </c>
       <c r="AC156">
-        <f>SUM(B156:AB156)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -48184,7 +48137,7 @@
         <v>0</v>
       </c>
       <c r="AC157">
-        <f>SUM(B157:AB157)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -48274,7 +48227,7 @@
         <v>0</v>
       </c>
       <c r="AC158">
-        <f>SUM(B158:AB158)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -48364,7 +48317,7 @@
         <v>1</v>
       </c>
       <c r="AC159">
-        <f>SUM(B159:AB159)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -48454,7 +48407,7 @@
         <v>0</v>
       </c>
       <c r="AC160">
-        <f>SUM(B160:AB160)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -48544,7 +48497,7 @@
         <v>0</v>
       </c>
       <c r="AC161">
-        <f>SUM(B161:AB161)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -48634,7 +48587,7 @@
         <v>0</v>
       </c>
       <c r="AC162">
-        <f>SUM(B162:AB162)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -48724,7 +48677,7 @@
         <v>0</v>
       </c>
       <c r="AC163">
-        <f>SUM(B163:AB163)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -48814,7 +48767,7 @@
         <v>1</v>
       </c>
       <c r="AC164">
-        <f>SUM(B164:AB164)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -48904,7 +48857,7 @@
         <v>0</v>
       </c>
       <c r="AC165">
-        <f>SUM(B165:AB165)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -48994,7 +48947,7 @@
         <v>0</v>
       </c>
       <c r="AC166">
-        <f>SUM(B166:AB166)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -49084,7 +49037,7 @@
         <v>0</v>
       </c>
       <c r="AC167">
-        <f>SUM(B167:AB167)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -49174,7 +49127,7 @@
         <v>0</v>
       </c>
       <c r="AC168">
-        <f>SUM(B168:AB168)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -49264,7 +49217,7 @@
         <v>0</v>
       </c>
       <c r="AC169">
-        <f>SUM(B169:AB169)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -49354,7 +49307,7 @@
         <v>0</v>
       </c>
       <c r="AC170">
-        <f>SUM(B170:AB170)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -49444,7 +49397,7 @@
         <v>0</v>
       </c>
       <c r="AC171">
-        <f>SUM(B171:AB171)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -49534,7 +49487,7 @@
         <v>0</v>
       </c>
       <c r="AC172">
-        <f>SUM(B172:AB172)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -49624,7 +49577,7 @@
         <v>0</v>
       </c>
       <c r="AC173">
-        <f>SUM(B173:AB173)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -49714,7 +49667,7 @@
         <v>0</v>
       </c>
       <c r="AC174">
-        <f>SUM(B174:AB174)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -49804,7 +49757,7 @@
         <v>0</v>
       </c>
       <c r="AC175">
-        <f>SUM(B175:AB175)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -49894,7 +49847,7 @@
         <v>0</v>
       </c>
       <c r="AC176">
-        <f>SUM(B176:AB176)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -49984,7 +49937,7 @@
         <v>0</v>
       </c>
       <c r="AC177">
-        <f>SUM(B177:AB177)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -50074,7 +50027,7 @@
         <v>0</v>
       </c>
       <c r="AC178">
-        <f>SUM(B178:AB178)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -50164,7 +50117,7 @@
         <v>0</v>
       </c>
       <c r="AC179">
-        <f>SUM(B179:AB179)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -50254,7 +50207,7 @@
         <v>0</v>
       </c>
       <c r="AC180">
-        <f>SUM(B180:AB180)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -50344,7 +50297,7 @@
         <v>0</v>
       </c>
       <c r="AC181">
-        <f>SUM(B181:AB181)</f>
+        <f t="shared" ref="AC181:AC212" si="7">SUM(B181:AB181)</f>
         <v>1</v>
       </c>
     </row>
@@ -50434,7 +50387,7 @@
         <v>0</v>
       </c>
       <c r="AC182">
-        <f>SUM(B182:AB182)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -50524,7 +50477,7 @@
         <v>0</v>
       </c>
       <c r="AC183">
-        <f>SUM(B183:AB183)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -50614,7 +50567,7 @@
         <v>0</v>
       </c>
       <c r="AC184">
-        <f>SUM(B184:AB184)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -50704,7 +50657,7 @@
         <v>0</v>
       </c>
       <c r="AC185">
-        <f>SUM(B185:AB185)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -50794,7 +50747,7 @@
         <v>0</v>
       </c>
       <c r="AC186">
-        <f>SUM(B186:AB186)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -50884,7 +50837,7 @@
         <v>1</v>
       </c>
       <c r="AC187">
-        <f>SUM(B187:AB187)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -50974,7 +50927,7 @@
         <v>1</v>
       </c>
       <c r="AC188">
-        <f>SUM(B188:AB188)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -51064,7 +51017,7 @@
         <v>0</v>
       </c>
       <c r="AC189">
-        <f>SUM(B189:AB189)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -51154,7 +51107,7 @@
         <v>0</v>
       </c>
       <c r="AC190">
-        <f>SUM(B190:AB190)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -51163,144 +51116,144 @@
         <v>75</v>
       </c>
       <c r="B191">
-        <f>SUM(B117:B190)</f>
+        <f t="shared" ref="B191:AB191" si="8">SUM(B117:B190)</f>
         <v>1</v>
       </c>
       <c r="C191">
-        <f>SUM(C117:C190)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D191">
-        <f>SUM(D117:D190)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E191">
-        <f>SUM(E117:E190)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F191">
-        <f>SUM(F117:F190)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G191">
-        <f>SUM(G117:G190)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H191">
-        <f>SUM(H117:H190)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I191">
-        <f>SUM(I117:I190)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J191">
-        <f>SUM(J117:J190)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="K191">
-        <f>SUM(K117:K190)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="L191">
-        <f>SUM(L117:L190)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M191">
-        <f>SUM(M117:M190)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N191">
-        <f>SUM(N117:N190)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O191">
-        <f>SUM(O117:O190)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P191">
-        <f>SUM(P117:P190)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q191">
-        <f>SUM(Q117:Q190)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R191">
-        <f>SUM(R117:R190)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S191">
-        <f>SUM(S117:S190)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T191">
-        <f>SUM(T117:T190)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="U191">
-        <f>SUM(U117:U190)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="V191">
-        <f>SUM(V117:V190)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="W191">
-        <f>SUM(W117:W190)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X191">
-        <f>SUM(X117:X190)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y191">
-        <f>SUM(Y117:Y190)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z191">
-        <f>SUM(Z117:Z190)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AA191">
-        <f>SUM(AA117:AA190)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AB191">
-        <f>SUM(AB117:AB190)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AC2:AC109 B110:AB110">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AC109">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B191:AB191">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC117:AC190">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
